--- a/bot/work.xlsx
+++ b/bot/work.xlsx
@@ -460,7 +460,7 @@
   <dimension ref="A1:AD1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
